--- a/excels/config/game/const/const.xlsx
+++ b/excels/config/game/const/const.xlsx
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>

--- a/excels/config/game/const/const.xlsx
+++ b/excels/config/game/const/const.xlsx
@@ -29,16 +29,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
+    <t>技能类型KEY</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
-    <t>技能类型KEY</t>
+    <t>key</t>
   </si>
   <si>
     <t>order</t>
-  </si>
-  <si>
-    <t>key</t>
   </si>
   <si>
     <t>null</t>
@@ -1002,12 +1002,12 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1035,75 +1035,75 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
         <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
         <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/const/const.xlsx
+++ b/excels/config/game/const/const.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>技能类型KEY</t>
   </si>
@@ -44,31 +44,58 @@
     <t>null</t>
   </si>
   <si>
+    <t>Summon</t>
+  </si>
+  <si>
+    <t>召唤型</t>
+  </si>
+  <si>
+    <t>Coil</t>
+  </si>
+  <si>
+    <t>线圈型</t>
+  </si>
+  <si>
+    <t>Surround</t>
+  </si>
+  <si>
+    <t>环绕型</t>
+  </si>
+  <si>
     <t>Aoe</t>
   </si>
   <si>
-    <t>Buff</t>
+    <t>范围型</t>
+  </si>
+  <si>
+    <t>Bounce</t>
+  </si>
+  <si>
+    <t>弹射型</t>
+  </si>
+  <si>
+    <t>Missile</t>
+  </si>
+  <si>
+    <t>弹道型</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>目标型</t>
   </si>
   <si>
     <t>Dot</t>
   </si>
   <si>
-    <t>Grow</t>
-  </si>
-  <si>
-    <t>Missile</t>
+    <t>持续型</t>
   </si>
   <si>
     <t>Orb</t>
   </si>
   <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>Summon</t>
-  </si>
-  <si>
-    <t>Surround</t>
+    <t>法球型</t>
   </si>
 </sst>
 </file>
@@ -999,13 +1026,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
   </cols>
@@ -1030,80 +1057,188 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/const/const.xlsx
+++ b/excels/config/game/const/const.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="arms_types" sheetId="1" r:id="rId1"/>
+    <sheet name="ability_types" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>技能类型KEY</t>
   </si>
@@ -41,7 +41,10 @@
     <t>order</t>
   </si>
   <si>
-    <t>null</t>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Aoe</t>
   </si>
   <si>
     <t>Summon</t>
@@ -50,6 +53,9 @@
     <t>召唤型</t>
   </si>
   <si>
+    <t>Missile</t>
+  </si>
+  <si>
     <t>Coil</t>
   </si>
   <si>
@@ -62,19 +68,22 @@
     <t>环绕型</t>
   </si>
   <si>
-    <t>Aoe</t>
+    <t>Dot</t>
   </si>
   <si>
     <t>范围型</t>
   </si>
   <si>
+    <t>Buff</t>
+  </si>
+  <si>
     <t>Bounce</t>
   </si>
   <si>
     <t>弹射型</t>
   </si>
   <si>
-    <t>Missile</t>
+    <t>Resource</t>
   </si>
   <si>
     <t>弹道型</t>
@@ -86,7 +95,7 @@
     <t>目标型</t>
   </si>
   <si>
-    <t>Dot</t>
+    <t>Growth</t>
   </si>
   <si>
     <t>持续型</t>
@@ -96,6 +105,15 @@
   </si>
   <si>
     <t>法球型</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Targeting</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -711,9 +729,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1062,183 +1083,215 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>15</v>
+      <c r="A9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>17</v>
+      <c r="A10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>19</v>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>21</v>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/const/const.xlsx
+++ b/excels/config/game/const/const.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>技能类型KEY</t>
   </si>
@@ -35,18 +35,30 @@
     <t>编号</t>
   </si>
   <si>
+    <t>文本</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
     <t>order</t>
   </si>
   <si>
+    <t>#Loccustom_ability_type_{}</t>
+  </si>
+  <si>
     <t>Null</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>Aoe</t>
   </si>
   <si>
+    <t>范围型</t>
+  </si>
+  <si>
     <t>Summon</t>
   </si>
   <si>
@@ -56,6 +68,9 @@
     <t>Missile</t>
   </si>
   <si>
+    <t>弹道型</t>
+  </si>
+  <si>
     <t>Coil</t>
   </si>
   <si>
@@ -71,12 +86,15 @@
     <t>Dot</t>
   </si>
   <si>
-    <t>范围型</t>
+    <t>持续型</t>
   </si>
   <si>
     <t>Buff</t>
   </si>
   <si>
+    <t>增益型</t>
+  </si>
+  <si>
     <t>Bounce</t>
   </si>
   <si>
@@ -86,7 +104,7 @@
     <t>Resource</t>
   </si>
   <si>
-    <t>弹道型</t>
+    <t>理财型</t>
   </si>
   <si>
     <t>Target</t>
@@ -98,7 +116,7 @@
     <t>Growth</t>
   </si>
   <si>
-    <t>持续型</t>
+    <t>成长型</t>
   </si>
   <si>
     <t>Orb</t>
@@ -111,9 +129,6 @@
   </si>
   <si>
     <t>Targeting</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
 </sst>
 </file>
@@ -1047,251 +1062,271 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4"/>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5"/>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6"/>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7"/>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8"/>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9"/>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10"/>
       <c r="E10">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11"/>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12"/>
       <c r="E12">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
+      <c r="C15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
